--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B7973-B4D4-4CA5-91F7-93EB73A1F893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501248C4-E3C6-40D4-B890-335B5D18F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID send</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>chunk/id/new_pos</t>
+  </si>
+  <si>
+    <t>projectile_create</t>
+  </si>
+  <si>
+    <t>projectile_die</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -620,6 +626,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501248C4-E3C6-40D4-B890-335B5D18F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA97066-B2BA-4C27-A470-A3F65A7AC99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>ID send</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>projectile_die</t>
+  </si>
+  <si>
+    <t>id_pro,x,y,angle,vitesse,id_img</t>
+  </si>
+  <si>
+    <t>id_pro</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -633,6 +639,9 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10">
@@ -640,6 +649,9 @@
       </c>
       <c r="G10" t="s">
         <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA97066-B2BA-4C27-A470-A3F65A7AC99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78B470-B896-44AC-854E-E231314832FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>contain</t>
   </si>
   <si>
-    <t>Start the game</t>
-  </si>
-  <si>
     <t>the direction</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>id_pro</t>
+  </si>
+  <si>
+    <t>njit fini sa compilation</t>
   </si>
 </sst>
 </file>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,17 +529,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -547,19 +541,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -567,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -578,19 +572,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -598,16 +592,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -615,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -626,10 +620,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -637,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -648,9 +642,17 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78B470-B896-44AC-854E-E231314832FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD5BDB-91B3-4993-8666-01B568E97364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>ID send</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>njit fini sa compilation</t>
+  </si>
+  <si>
+    <t>type weapon of player</t>
+  </si>
+  <si>
+    <t>id weapon / loading_time/id_player</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -499,7 +505,7 @@
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="7" max="7" width="25.73046875" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -656,6 +662,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD5BDB-91B3-4993-8666-01B568E97364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4054B-8B46-4546-9F1F-AD838375ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>ID send</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>id weapon / loading_time/id_player</t>
+  </si>
+  <si>
+    <t>next time can shot</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -673,6 +679,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4054B-8B46-4546-9F1F-AD838375ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA122C24-E530-4EA1-8037-B5E72AB98712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA122C24-E530-4EA1-8037-B5E72AB98712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106AC0D-6A1E-415E-9162-BCE37CE1D73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>ID send</t>
   </si>
@@ -77,12 +77,6 @@
     <t>remove client</t>
   </si>
   <si>
-    <t>x,y,rgba for each cell</t>
-  </si>
-  <si>
-    <t>all cell to draw</t>
-  </si>
-  <si>
     <t>nouvelle position client</t>
   </si>
   <si>
@@ -129,6 +123,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -502,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -545,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -593,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -610,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -621,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -632,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -643,10 +640,10 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -654,10 +651,10 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -665,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -673,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -684,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2106AC0D-6A1E-415E-9162-BCE37CE1D73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E3614-CCFB-416A-8423-D2E73E762277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID send</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Update life</t>
+  </si>
+  <si>
+    <t>id player / new_life</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -687,6 +693,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E3614-CCFB-416A-8423-D2E73E762277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922F444-7BFD-4EF9-B2A0-33CDE8C5634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>ID send</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>id player / new_life</t>
+  </si>
+  <si>
+    <t>Switch spell_pos</t>
+  </si>
+  <si>
+    <t>(weapon/idx)(weapon/idx)</t>
   </si>
 </sst>
 </file>
@@ -506,13 +512,13 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.73046875" customWidth="1"/>
     <col min="8" max="8" width="28.19921875" customWidth="1"/>
   </cols>
@@ -620,6 +626,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
       <c r="F7">
         <v>5</v>
       </c>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922F444-7BFD-4EF9-B2A0-33CDE8C5634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D07A3E4-3223-43C2-9B1D-3A73ED637543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CES\projet_epita\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A922F444-7BFD-4EF9-B2A0-33CDE8C5634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324C8F2-A4C1-49B6-948C-6508AD69DC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>ID send</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>(weapon/idx)(weapon/idx)</t>
+  </si>
+  <si>
+    <t>Update money</t>
+  </si>
+  <si>
+    <t>id player / new money</t>
   </si>
 </sst>
 </file>
@@ -509,21 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.73046875" customWidth="1"/>
-    <col min="8" max="8" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -549,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F2">
         <v>0</v>
       </c>
@@ -557,7 +563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -577,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F4">
         <v>2</v>
       </c>
@@ -588,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>3</v>
       </c>
@@ -608,7 +614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>4</v>
       </c>
@@ -625,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5</v>
       </c>
@@ -645,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F8">
         <v>6</v>
       </c>
@@ -656,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F9">
         <v>7</v>
       </c>
@@ -667,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>8</v>
       </c>
@@ -678,7 +684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>9</v>
       </c>
@@ -686,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F12">
         <v>10</v>
       </c>
@@ -697,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>11</v>
       </c>
@@ -708,7 +714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F14">
         <v>12</v>
       </c>
@@ -717,6 +723,17 @@
       </c>
       <c r="H14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/Envoie_données.xlsx
+++ b/data/Envoie_données.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CES\projet_epita\Unknown\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobil\Unknown\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324C8F2-A4C1-49B6-948C-6508AD69DC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03710DC6-38EA-4A47-B37B-75D747C28E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
+    <workbookView xWindow="4268" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{B9327B43-8E89-4C75-A473-2C353B32A7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>ID send</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>id player / new money</t>
+  </si>
+  <si>
+    <t>Update life monster</t>
   </si>
 </sst>
 </file>
@@ -515,21 +518,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C48EE1-EBD0-4B79-91FA-27BBFC80C012}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.73046875" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -555,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F2">
         <v>0</v>
       </c>
@@ -563,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -583,7 +586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F4">
         <v>2</v>
       </c>
@@ -594,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
@@ -614,7 +617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>4</v>
       </c>
@@ -631,7 +634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>5</v>
       </c>
@@ -651,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F8">
         <v>6</v>
       </c>
@@ -662,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F9">
         <v>7</v>
       </c>
@@ -673,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F10">
         <v>8</v>
       </c>
@@ -684,7 +687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>9</v>
       </c>
@@ -692,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>10</v>
       </c>
@@ -703,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>11</v>
       </c>
@@ -714,7 +717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F14">
         <v>12</v>
       </c>
@@ -725,7 +728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F15">
         <v>13</v>
       </c>
@@ -734,6 +737,14 @@
       </c>
       <c r="H15" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
